--- a/AAII_Financials/Quarterly/SXTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SXTC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>SXTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -668,152 +668,178 @@
     <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F8" s="3">
         <v>7000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3700</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F10" s="3">
         <v>4600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>700</v>
       </c>
       <c r="J10" s="3">
         <v>1700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K10" s="3">
+        <v>700</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,31 +924,37 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>5600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -922,8 +962,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F17" s="3">
         <v>5200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>1800</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>300</v>
       </c>
       <c r="G18" s="3">
         <v>1300</v>
       </c>
       <c r="H18" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="I18" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="J18" s="3">
         <v>1100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K18" s="3">
+        <v>600</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,16 +1109,18 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1064,51 +1132,63 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="D21" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1219,90 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>1800</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>300</v>
       </c>
       <c r="G23" s="3">
         <v>1300</v>
       </c>
       <c r="H23" s="3">
+        <v>300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>1500</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>200</v>
       </c>
       <c r="G26" s="3">
         <v>1000</v>
       </c>
       <c r="H26" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="I26" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K26" s="3">
+        <v>400</v>
+      </c>
+      <c r="L26" s="3">
+        <v>800</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>1500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>200</v>
       </c>
       <c r="G27" s="3">
         <v>1000</v>
       </c>
       <c r="H27" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="I27" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K27" s="3">
+        <v>400</v>
+      </c>
+      <c r="L27" s="3">
+        <v>800</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,16 +1561,22 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1448,51 +1588,63 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>1500</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>200</v>
       </c>
       <c r="G33" s="3">
         <v>1000</v>
       </c>
       <c r="H33" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="I33" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K33" s="3">
+        <v>400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>800</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>1500</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>200</v>
       </c>
       <c r="G35" s="3">
         <v>1000</v>
       </c>
       <c r="H35" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="I35" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K35" s="3">
+        <v>400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>800</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,28 +1792,30 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F41" s="3">
         <v>9100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1652,8 +1826,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,29 +1864,35 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F43" s="3">
         <v>4300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>5900</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,29 +1902,35 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F44" s="3">
         <v>1300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1500</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1748,29 +1940,35 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1780,29 +1978,35 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F46" s="3">
         <v>15600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>6100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>7500</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,31 +2016,37 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>3500</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1844,29 +2054,35 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1876,8 +2092,14 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1891,13 +2113,13 @@
         <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1908,8 +2130,14 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,13 +2206,19 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -1986,11 +2226,11 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,29 +2282,35 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F54" s="3">
         <v>17500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2068,8 +2320,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,29 +2356,31 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E57" s="3">
         <v>2000</v>
       </c>
       <c r="F57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,29 +2390,35 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2160,29 +2428,35 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F59" s="3">
         <v>4400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,29 +2466,35 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F60" s="3">
         <v>6300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2224,8 +2504,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2233,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2256,40 +2542,52 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,29 +2694,35 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F66" s="3">
         <v>6400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2416,8 +2732,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,29 +2900,35 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>700</v>
+      </c>
+      <c r="F72" s="3">
         <v>3100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1400</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2938,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,29 +3052,35 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F76" s="3">
         <v>11100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2718,8 +3090,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>1500</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>200</v>
       </c>
       <c r="G81" s="3">
         <v>1000</v>
       </c>
       <c r="H81" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="I81" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K81" s="3">
+        <v>400</v>
+      </c>
+      <c r="L81" s="3">
+        <v>800</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,28 +3229,30 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,29 +3453,35 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3491,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,28 +3511,30 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,29 +3621,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="D94" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3199,8 +3659,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,29 +3827,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="D100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3373,28 +3865,34 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3405,28 +3903,34 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3435,6 +3939,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SXTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SXTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>SXTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,176 +670,202 @@
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>5200</v>
+        <v>900</v>
       </c>
       <c r="E8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G8" s="3">
         <v>3200</v>
       </c>
-      <c r="F8" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I8" s="3">
         <v>3900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3700</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="E9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F10" s="3">
+        <v>800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I10" s="3">
         <v>2700</v>
       </c>
-      <c r="E10" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K10" s="3">
-        <v>700</v>
       </c>
       <c r="L10" s="3">
         <v>1700</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>700</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +880,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +920,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,20 +964,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>5600</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,11 +996,11 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -968,8 +1008,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1052,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1071,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12100</v>
+        <v>4300</v>
       </c>
       <c r="E17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
-        <v>5200</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6900</v>
+        <v>-3400</v>
       </c>
       <c r="E18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1300</v>
-      </c>
       <c r="H18" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I18" s="3">
         <v>1300</v>
       </c>
       <c r="J18" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K18" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="L18" s="3">
         <v>1100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>600</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,23 +1177,25 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3500</v>
+        <v>1800</v>
       </c>
       <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1138,80 +1206,92 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-10100</v>
+        <v>-1500</v>
       </c>
       <c r="E21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1225,84 +1305,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10400</v>
+        <v>-4600</v>
       </c>
       <c r="E23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1300</v>
-      </c>
       <c r="H23" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I23" s="3">
         <v>1300</v>
       </c>
       <c r="J23" s="3">
+        <v>300</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
-      </c>
       <c r="G24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1437,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10300</v>
+        <v>-4100</v>
       </c>
       <c r="E26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1000</v>
-      </c>
       <c r="H26" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I26" s="3">
         <v>1000</v>
       </c>
       <c r="J26" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K26" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>400</v>
+      </c>
+      <c r="N26" s="3">
+        <v>800</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10300</v>
+        <v>-4100</v>
       </c>
       <c r="E27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1000</v>
-      </c>
       <c r="H27" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I27" s="3">
         <v>1000</v>
       </c>
       <c r="J27" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K27" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>400</v>
+      </c>
+      <c r="N27" s="3">
+        <v>800</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1569,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1613,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1657,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,23 +1701,29 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3500</v>
+        <v>-1800</v>
       </c>
       <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1594,57 +1734,69 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10300</v>
+        <v>-4100</v>
       </c>
       <c r="E33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1000</v>
-      </c>
       <c r="H33" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I33" s="3">
         <v>1000</v>
       </c>
       <c r="J33" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K33" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>400</v>
+      </c>
+      <c r="N33" s="3">
+        <v>800</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1833,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10300</v>
+        <v>-4100</v>
       </c>
       <c r="E35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1000</v>
-      </c>
       <c r="H35" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I35" s="3">
         <v>1000</v>
       </c>
       <c r="J35" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K35" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>400</v>
+      </c>
+      <c r="N35" s="3">
+        <v>800</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1948,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,34 +1966,36 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F41" s="3">
         <v>7300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>8200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>9100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -1832,8 +2006,14 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,35 +2050,41 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F43" s="3">
         <v>9700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>6100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>5900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,35 +2094,41 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>900</v>
+      </c>
+      <c r="F44" s="3">
+        <v>900</v>
+      </c>
+      <c r="G44" s="3">
+        <v>800</v>
+      </c>
+      <c r="H44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="I44" s="3">
         <v>1100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="J44" s="3">
         <v>1300</v>
       </c>
-      <c r="G44" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>1500</v>
       </c>
-      <c r="I44" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,35 +2138,41 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="E45" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="F45" s="3">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="G45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
-        <v>800</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,35 +2182,41 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>22100</v>
+      </c>
+      <c r="F46" s="3">
         <v>19600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>17500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>15600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>7500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,23 +2226,29 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>3500</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,11 +2258,11 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2060,35 +2270,41 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E48" s="3">
         <v>1900</v>
       </c>
       <c r="F48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,16 +2314,22 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -2119,13 +2341,13 @@
         <v>100</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>100</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2358,14 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2402,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,31 +2446,37 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2250,8 +2490,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,35 +2534,41 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F54" s="3">
         <v>21700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>23000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>17500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2578,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2600,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,35 +2618,37 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1900</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1700</v>
       </c>
       <c r="G57" s="3">
         <v>2000</v>
       </c>
       <c r="H57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,35 +2658,41 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>6700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,35 +2702,41 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,35 +2746,41 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F60" s="3">
         <v>12300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2510,8 +2790,14 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2519,14 +2805,14 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2548,8 +2834,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2574,20 +2866,26 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2922,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2966,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,35 +3010,41 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F66" s="3">
         <v>12300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +3054,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3076,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3116,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3160,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3204,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,35 +3248,41 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3292,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3336,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3380,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,35 +3424,41 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F76" s="3">
         <v>9400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>11400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>11100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3468,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3512,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10300</v>
+        <v>-4100</v>
       </c>
       <c r="E81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1000</v>
-      </c>
       <c r="H81" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I81" s="3">
         <v>1000</v>
       </c>
       <c r="J81" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K81" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>400</v>
+      </c>
+      <c r="N81" s="3">
+        <v>800</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,35 +3627,37 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,8 +3667,14 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3711,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3755,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3799,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3843,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,35 +3887,41 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>900</v>
+        <v>-1000</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
         <v>2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3497,8 +3931,14 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,34 +3953,36 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3551,8 +3993,14 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4037,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,35 +4081,41 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-5500</v>
       </c>
-      <c r="E94" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3665,8 +4125,14 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4147,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4187,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4231,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4275,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,35 +4319,41 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3000</v>
+        <v>12100</v>
       </c>
       <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G100" s="3">
         <v>6900</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,34 +4363,40 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-500</v>
+        <v>400</v>
       </c>
       <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -3909,34 +4407,40 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2000</v>
+        <v>3000</v>
       </c>
       <c r="E102" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="G102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -3945,6 +4449,12 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SXTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SXTC_QTR_FIN.xlsx
@@ -1247,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K21" s="3">
         <v>1400</v>
@@ -3653,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -3917,7 +3917,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
@@ -4111,7 +4111,7 @@
         <v>3</v>
       </c>
       <c r="J94" s="3">
-        <v>-1600</v>
+        <v>-1100</v>
       </c>
       <c r="K94" s="3">
         <v>500</v>
@@ -4349,7 +4349,7 @@
         <v>3</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K100" s="3">
         <v>-300</v>

--- a/AAII_Financials/Quarterly/SXTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SXTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>SXTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,220 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3700</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1200</v>
       </c>
       <c r="I9" s="3">
         <v>1200</v>
       </c>
       <c r="J9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>2900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1700</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +895,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +940,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,23 +987,26 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>5600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1002,8 +1022,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1014,8 +1034,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1081,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1099,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E17" s="3">
         <v>4300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,26 +1212,27 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1212,75 +1246,81 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,8 +1333,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1311,96 +1351,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
       <c r="M24" s="3">
+        <v>300</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1492,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,26 +1774,29 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1740,63 +1810,69 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1915,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,37 +2054,38 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>13300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -2012,8 +2099,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,38 +2146,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,13 +2193,16 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E44" s="3">
         <v>900</v>
@@ -2115,23 +2211,23 @@
         <v>900</v>
       </c>
       <c r="G44" s="3">
+        <v>900</v>
+      </c>
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1500</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2144,38 +2240,41 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,38 +2287,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E46" s="3">
         <v>23200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2232,8 +2334,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2246,12 +2351,12 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>3500</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2264,8 +2369,8 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2276,16 +2381,19 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1800</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1900</v>
       </c>
       <c r="F48" s="3">
         <v>1900</v>
@@ -2294,20 +2402,20 @@
         <v>1900</v>
       </c>
       <c r="H48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2320,8 +2428,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2332,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2347,10 +2458,10 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2364,8 +2475,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,23 +2569,26 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E52" s="3">
         <v>9500</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
@@ -2478,8 +2598,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2496,8 +2616,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,38 +2663,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E54" s="3">
         <v>34500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2710,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,8 +2750,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2629,29 +2760,29 @@
         <v>1500</v>
       </c>
       <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2664,8 +2795,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2676,26 +2810,26 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>6700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2708,38 +2842,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E59" s="3">
         <v>17100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,38 +2889,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E60" s="3">
         <v>18600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2936,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2811,11 +2954,11 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>900</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2840,8 +2983,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2872,20 +3018,23 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,38 +3171,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E66" s="3">
         <v>18600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,8 +3218,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,38 +3425,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3298,8 +3472,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,38 +3613,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E76" s="3">
         <v>16000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3660,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3707,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3827,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3644,22 +3843,22 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
-        <v>100</v>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>100</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3673,8 +3872,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,38 +4107,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,8 +4154,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4175,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3970,22 +4191,22 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3999,8 +4220,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,38 +4314,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2700</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-5500</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4131,8 +4361,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,37 +4568,40 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E100" s="3">
         <v>12100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6900</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
-        <v>-300</v>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>-300</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4369,37 +4615,40 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
         <v>400</v>
       </c>
       <c r="F101" s="3">
+        <v>400</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -4413,37 +4662,40 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E102" s="3">
         <v>3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-1000</v>
       </c>
       <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>-1000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4455,6 +4707,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SXTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SXTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>SXTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,220 +665,233 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3700</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1200</v>
       </c>
       <c r="J9" s="3">
         <v>1200</v>
       </c>
       <c r="K9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>2900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1700</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,8 +909,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -943,8 +957,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,26 +1007,29 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>5600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1025,8 +1045,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1037,8 +1057,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1084,8 +1107,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,8 +1126,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1109,93 +1136,99 @@
         <v>3900</v>
       </c>
       <c r="E17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,29 +1246,30 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1249,66 +1283,72 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1316,14 +1356,14 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1336,8 +1376,8 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1354,102 +1394,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,102 +1544,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1694,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1744,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1794,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,29 +1844,32 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1813,66 +1883,72 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,107 +1994,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2121,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,40 +2141,41 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>15500</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>13300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
@@ -2102,8 +2189,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2149,41 +2239,44 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E43" s="3">
         <v>9000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,16 +2289,19 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
         <v>800</v>
-      </c>
-      <c r="E44" s="3">
-        <v>900</v>
       </c>
       <c r="F44" s="3">
         <v>900</v>
@@ -2214,23 +2310,23 @@
         <v>900</v>
       </c>
       <c r="H44" s="3">
+        <v>900</v>
+      </c>
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1500</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2243,41 +2339,44 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,41 +2389,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E46" s="3">
         <v>11700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2337,8 +2439,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2354,12 +2459,12 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>3500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2477,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2384,19 +2489,22 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1900</v>
       </c>
       <c r="G48" s="3">
         <v>1900</v>
@@ -2405,20 +2513,20 @@
         <v>1900</v>
       </c>
       <c r="I48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J48" s="3">
         <v>1800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,8 +2539,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2446,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -2461,10 +2572,10 @@
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2478,8 +2589,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2639,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,26 +2689,29 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E52" s="3">
         <v>9300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9500</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
@@ -2601,8 +2721,8 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2739,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,41 +2789,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E54" s="3">
         <v>22700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2713,8 +2839,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2861,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,8 +2881,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2763,29 +2894,29 @@
         <v>1500</v>
       </c>
       <c r="F57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2798,13 +2929,16 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2813,26 +2947,26 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>6700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2845,41 +2979,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E59" s="3">
         <v>7400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2892,41 +3029,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E60" s="3">
         <v>8900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2939,8 +3079,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2957,11 +3100,11 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2986,8 +3129,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3021,20 +3167,23 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3229,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3279,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,41 +3329,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E66" s="3">
         <v>8900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3379,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3401,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3449,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3499,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3381,8 +3549,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,41 +3599,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3649,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3699,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3749,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,41 +3799,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E76" s="3">
         <v>13800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3849,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,107 +3899,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,13 +4026,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -3846,22 +4045,22 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>100</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>100</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3875,8 +4074,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4124,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4174,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4224,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4274,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,41 +4324,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4157,8 +4374,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,8 +4396,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4194,22 +4415,22 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4223,8 +4444,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4494,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,41 +4544,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2700</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-5500</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4364,8 +4594,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4616,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4664,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4714,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +4764,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,40 +4814,43 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6900</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
-        <v>-300</v>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>-300</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4618,8 +4864,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4627,31 +4876,31 @@
         <v>200</v>
       </c>
       <c r="E101" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
         <v>400</v>
       </c>
       <c r="G101" s="3">
+        <v>400</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
@@ -4665,40 +4914,43 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-1000</v>
       </c>
       <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>-1000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
@@ -4710,6 +4962,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SXTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SXTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>SXTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,246 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3700</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1200</v>
       </c>
       <c r="K9" s="3">
         <v>1200</v>
       </c>
       <c r="L9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>2900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1700</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +923,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,8 +974,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,29 +1027,32 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>5600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1048,8 +1068,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1060,8 +1080,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1110,8 +1133,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,108 +1153,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>3900</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
         <v>3900</v>
       </c>
       <c r="F17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,32 +1280,33 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1286,87 +1320,93 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1379,8 +1419,8 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1397,58 +1437,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1456,49 +1502,52 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
       </c>
       <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,108 +1596,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1755,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1747,8 +1808,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1861,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,32 +1914,35 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1886,69 +1956,75 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,113 +2073,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2207,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,43 +2228,44 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>15500</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>13300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
@@ -2192,8 +2279,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2242,44 +2332,47 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E43" s="3">
         <v>5500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2292,19 +2385,22 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>800</v>
-      </c>
-      <c r="F44" s="3">
-        <v>900</v>
       </c>
       <c r="G44" s="3">
         <v>900</v>
@@ -2313,23 +2409,23 @@
         <v>900</v>
       </c>
       <c r="I44" s="3">
+        <v>900</v>
+      </c>
+      <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1500</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2342,44 +2438,47 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2392,44 +2491,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E46" s="3">
         <v>22500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2442,8 +2544,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2462,12 +2567,12 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>3500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2480,8 +2585,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2492,22 +2597,25 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1900</v>
       </c>
       <c r="H48" s="3">
         <v>1900</v>
@@ -2516,20 +2624,20 @@
         <v>1900</v>
       </c>
       <c r="J48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2542,8 +2650,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2560,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -2575,10 +2686,10 @@
         <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2592,8 +2703,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2756,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,29 +2809,32 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E52" s="3">
         <v>9500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9500</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
@@ -2724,8 +2844,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2742,8 +2862,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,44 +2915,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E54" s="3">
         <v>33500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,8 +2968,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2991,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,13 +3012,14 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E57" s="3">
         <v>1500</v>
@@ -2897,29 +3028,29 @@
         <v>1500</v>
       </c>
       <c r="G57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,17 +3063,20 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -2950,26 +3084,26 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>6700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,44 +3116,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
         <v>13600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,44 +3169,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E60" s="3">
         <v>17100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3082,8 +3222,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3103,11 +3246,11 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3132,8 +3275,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3170,20 +3316,23 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3381,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3434,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,44 +3487,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E66" s="3">
         <v>17100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3382,8 +3540,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3563,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3614,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3667,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3552,8 +3720,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,44 +3773,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,8 +3826,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3879,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3932,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,44 +3985,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E76" s="3">
         <v>16400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3852,8 +4038,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,113 +4091,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,8 +4225,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4036,7 +4235,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -4048,22 +4247,22 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>100</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>100</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4077,8 +4276,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4329,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4382,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4435,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4488,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,44 +4541,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4377,8 +4594,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,8 +4617,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4418,22 +4639,22 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4447,8 +4668,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4721,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,44 +4774,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>9300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2700</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-5500</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4597,8 +4827,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4850,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4667,8 +4901,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4954,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5007,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,43 +5060,46 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E100" s="3">
         <v>5500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
-        <v>-300</v>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>-300</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4867,43 +5113,46 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>200</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
         <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G101" s="3">
         <v>400</v>
       </c>
       <c r="H101" s="3">
+        <v>400</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -4917,43 +5166,46 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E102" s="3">
         <v>15500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-1000</v>
       </c>
       <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>-1000</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
@@ -4965,6 +5217,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SXTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SXTC_QTR_FIN.xlsx
@@ -4636,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/SXTC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SXTC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>SXTC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,246 +665,259 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3700</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1200</v>
       </c>
       <c r="L9" s="3">
         <v>1200</v>
       </c>
       <c r="M9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1700</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +937,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -977,8 +991,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,32 +1047,35 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>5600</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1071,8 +1091,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1083,8 +1103,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,8 +1159,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1154,114 +1180,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>5200</v>
       </c>
       <c r="E17" s="3">
-        <v>3900</v>
+        <v>2400</v>
       </c>
       <c r="F17" s="3">
         <v>3900</v>
       </c>
       <c r="G17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-4400</v>
       </c>
       <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1281,35 +1314,36 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1323,93 +1357,99 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-4200</v>
       </c>
       <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>2900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,8 +1462,8 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1440,61 +1480,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1505,49 +1551,52 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
       </c>
       <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,114 +1648,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-4400</v>
       </c>
       <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-4400</v>
       </c>
       <c r="E27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1758,8 +1816,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1811,8 +1872,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1864,8 +1928,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1917,35 +1984,38 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1959,72 +2029,78 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-4400</v>
       </c>
       <c r="E33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>800</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2076,119 +2152,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-4400</v>
       </c>
       <c r="E35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>800</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2208,8 +2293,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2229,46 +2315,47 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15500</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>13300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2282,8 +2369,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2335,47 +2425,50 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7700</v>
+        <v>1300</v>
       </c>
       <c r="E43" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F43" s="3">
         <v>5500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5900</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,22 +2481,25 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>800</v>
-      </c>
-      <c r="G44" s="3">
-        <v>900</v>
       </c>
       <c r="H44" s="3">
         <v>900</v>
@@ -2412,23 +2508,23 @@
         <v>900</v>
       </c>
       <c r="J44" s="3">
+        <v>900</v>
+      </c>
+      <c r="K44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1500</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,47 +2537,50 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,47 +2593,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E46" s="3">
         <v>12400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2547,8 +2649,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2570,12 +2675,12 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>3500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2693,8 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2600,25 +2705,28 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1900</v>
       </c>
       <c r="I48" s="3">
         <v>1900</v>
@@ -2627,20 +2735,20 @@
         <v>1900</v>
       </c>
       <c r="K48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,8 +2761,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2674,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -2689,10 +2800,10 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2706,8 +2817,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2759,8 +2873,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2812,32 +2929,35 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E52" s="3">
         <v>8400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9500</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
@@ -2847,8 +2967,8 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2865,8 +2985,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2918,47 +3041,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E54" s="3">
         <v>22200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2971,8 +3097,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2992,8 +3121,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3013,16 +3143,17 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1500</v>
       </c>
       <c r="F57" s="3">
         <v>1500</v>
@@ -3031,29 +3162,29 @@
         <v>1500</v>
       </c>
       <c r="H57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3066,20 +3197,23 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -3087,26 +3221,26 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>6700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,47 +3253,50 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3172,47 +3309,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E60" s="3">
         <v>7300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,13 +3365,16 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3249,11 +3392,11 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3278,31 +3421,34 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3319,20 +3465,23 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3384,8 +3533,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3437,8 +3589,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3490,47 +3645,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3543,8 +3701,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3564,8 +3725,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3617,8 +3779,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3670,8 +3835,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3723,8 +3891,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3776,47 +3947,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3829,8 +4003,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3882,8 +4059,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3935,8 +4115,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3988,47 +4171,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E76" s="3">
         <v>14900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4041,8 +4227,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4094,119 +4283,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-4400</v>
       </c>
       <c r="E81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>800</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4226,8 +4424,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4238,7 +4437,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -4250,22 +4449,22 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>100</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>100</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4279,8 +4478,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4332,8 +4534,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4385,8 +4590,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4438,8 +4646,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4491,8 +4702,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4544,47 +4758,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4597,8 +4814,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4618,13 +4838,14 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4636,28 +4857,28 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4671,8 +4892,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4724,8 +4948,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4777,47 +5004,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>9300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2700</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4830,8 +5060,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4851,8 +5084,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4904,8 +5138,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4957,8 +5194,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5010,8 +5250,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5063,46 +5306,49 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>12100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
-        <v>-300</v>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>-300</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -5116,46 +5362,49 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E101" s="3">
-        <v>200</v>
       </c>
       <c r="F101" s="3">
         <v>200</v>
       </c>
       <c r="G101" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H101" s="3">
         <v>400</v>
       </c>
       <c r="I101" s="3">
+        <v>400</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
@@ -5169,46 +5418,49 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-1000</v>
       </c>
       <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>-1000</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
@@ -5220,6 +5472,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
